--- a/My_CP_Track/CP.xlsx
+++ b/My_CP_Track/CP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9215" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Number_Theory" sheetId="4" r:id="rId1"/>
@@ -1720,11 +1720,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="&quot;₹&quot;#,##0.00_);[Red]\(&quot;₹&quot;#,##0.00\)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="&quot;₹&quot;#,##0.00_);[Red]\(&quot;₹&quot;#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1795,14 +1795,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1812,6 +1804,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1894,21 +1902,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1926,6 +1919,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1990,7 +1990,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2002,19 +2020,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2026,19 +2032,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2056,19 +2062,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2080,7 +2080,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2092,13 +2092,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2116,25 +2122,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2152,7 +2146,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2164,13 +2170,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2181,6 +2181,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2233,21 +2248,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2286,148 +2286,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2447,7 +2447,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2931,8 +2931,8 @@
   <sheetPr/>
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -4353,8 +4353,8 @@
   <sheetPr/>
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>

--- a/My_CP_Track/CP.xlsx
+++ b/My_CP_Track/CP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9215"/>
   </bookViews>
   <sheets>
     <sheet name="Number_Theory" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="275">
   <si>
     <t>Problem</t>
   </si>
@@ -59,6 +59,21 @@
   </si>
   <si>
     <t>https://www.hackerearth.com/problem/algorithm/monk-and-divisor-conundrum-56e0eb99/?purpose=login&amp;source=problem-page&amp;update=github</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>All Sieve Applications</t>
+  </si>
+  <si>
+    <t>had initial idea but it gets TLE</t>
+  </si>
+  <si>
+    <t>learnt a unique application of sieve -&gt; to sieve out powers</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/basic-number-theory-2/practice-problems/algorithm/hacker-with-prime-bebe28ac/</t>
   </si>
   <si>
     <t>Analysis</t>
@@ -1619,6 +1634,37 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> how to prevent out of bound access in arr[]</t>
+    </r>
+  </si>
+  <si>
+    <t>1864C</t>
+  </si>
+  <si>
+    <t>bit manipulation</t>
+  </si>
+  <si>
+    <t>had no idea</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">learnt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that LSB of any no. is its divisor (see learnings.txt)</t>
     </r>
   </si>
   <si>
@@ -1720,11 +1766,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="&quot;₹&quot;#,##0.00_);[Red]\(&quot;₹&quot;#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="&quot;₹&quot;#,##0.00_);[Red]\(&quot;₹&quot;#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1795,8 +1841,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1809,15 +1856,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1902,6 +1947,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1990,25 +2036,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2020,7 +2048,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2032,19 +2066,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2062,7 +2090,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2074,55 +2174,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2134,13 +2198,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2152,25 +2210,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2184,17 +2230,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2248,6 +2288,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2258,15 +2313,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2286,152 +2332,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2447,7 +2493,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2531,6 +2577,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2854,13 +2909,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="18.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="16.6666666666667" customWidth="1"/>
@@ -2887,7 +2942,7 @@
       <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="17" t="s">
@@ -2913,13 +2968,37 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="35" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="28" customHeight="1" spans="1:7">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" display="https://www.hackerearth.com/problem/algorithm/monk-and-divisor-conundrum-56e0eb99/?purpose=login&amp;source=problem-page&amp;update=github"/>
+    <hyperlink ref="G3" r:id="rId2" display="https://www.hackerearth.com/practice/math/number-theory/basic-number-theory-2/practice-problems/algorithm/hacker-with-prime-bebe28ac/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2929,10 +3008,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2966,1055 +3045,1075 @@
         <v>5</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" ht="12" spans="1:7">
       <c r="A2" s="18" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B2" s="19">
         <v>800</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G2" s="13"/>
     </row>
     <row r="3" ht="44" customHeight="1" spans="1:7">
       <c r="A3" s="22" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B3" s="10">
         <v>800</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B4" s="10">
         <v>800</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" ht="43" customHeight="1" spans="1:7">
       <c r="A5" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B5" s="10">
         <v>800</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" ht="24" spans="1:7">
       <c r="A6" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B6" s="10">
         <v>800</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" ht="36" spans="1:7">
       <c r="A7" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B7" s="10">
         <v>800</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" s="8" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A8" s="24" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B8" s="24">
         <v>800</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G8" s="13"/>
     </row>
     <row r="9" ht="24" spans="1:7">
       <c r="A9" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B9" s="10">
         <v>800</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" ht="42" customHeight="1" spans="1:7">
       <c r="A10" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B10" s="10">
         <v>800</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B11" s="10">
         <v>800</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" ht="24" spans="1:7">
       <c r="A12" s="9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B12" s="10">
         <v>800</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B13" s="10">
         <v>800</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" ht="23" customHeight="1" spans="1:6">
       <c r="A14" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B14" s="10">
         <v>800</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" ht="47" customHeight="1" spans="1:7">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B15" s="10">
         <v>900</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" ht="24" spans="1:7">
       <c r="A16" s="9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B16" s="10">
         <v>900</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" ht="27" customHeight="1" spans="1:7">
       <c r="A17" s="9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B17" s="10">
         <v>800</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" ht="48" spans="1:7">
       <c r="A18" s="9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B18" s="10">
         <v>900</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" ht="28.8" spans="1:7">
       <c r="A19" s="9" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B19" s="10">
         <v>900</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" ht="44" customHeight="1" spans="1:7">
       <c r="A20" s="9" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B20" s="10">
         <v>800</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B21" s="10">
         <v>900</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" ht="24" spans="1:7">
       <c r="A22" s="9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B22" s="10">
         <v>800</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" ht="53" customHeight="1" spans="1:7">
       <c r="A23" s="9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B23" s="10">
         <v>900</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" ht="55" customHeight="1" spans="1:7">
       <c r="A24" s="9" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B24" s="10">
         <v>900</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" ht="74" customHeight="1" spans="1:7">
       <c r="A25" s="9" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B25" s="10">
         <v>900</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" ht="40" customHeight="1" spans="1:7">
       <c r="A26" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B26" s="10">
         <v>900</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" ht="24" spans="1:6">
       <c r="A27" s="9" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B27" s="10">
         <v>800</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" ht="28.8" spans="1:7">
       <c r="A28" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B28" s="10">
         <v>900</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" ht="34" customHeight="1" spans="1:7">
       <c r="A29" s="9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B29" s="10">
         <v>900</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" ht="31" customHeight="1" spans="1:7">
       <c r="A30" s="9" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B30" s="10">
         <v>1000</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" ht="24" spans="1:6">
       <c r="A31" s="9" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B31" s="10">
         <v>1000</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" ht="36" spans="1:7">
       <c r="A32" s="9" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B32" s="10">
         <v>1000</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="9" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B33" s="10">
         <v>1100</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" ht="24" spans="1:6">
       <c r="A34" s="9" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B34" s="10">
         <v>1100</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" ht="36" spans="1:7">
       <c r="A35" s="9" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B35" s="10">
         <v>1100</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" ht="24" spans="1:7">
       <c r="A36" s="9" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B36" s="10">
         <v>1100</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" ht="24" spans="1:7">
       <c r="A37" s="9" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B37" s="10">
         <v>1100</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" ht="28" customHeight="1" spans="1:7">
       <c r="A38" s="9" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B38" s="10">
         <v>1100</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="9" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B39" s="10">
         <v>1100</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" ht="55" customHeight="1" spans="1:7">
       <c r="A40" s="9" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B40" s="10">
         <v>1100</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="9" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B41" s="10">
         <v>1100</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" ht="41" customHeight="1" spans="1:6">
       <c r="A42" s="9" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B42" s="10">
         <v>1100</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" ht="36" spans="1:7">
       <c r="A43" s="9" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F43" s="29" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" ht="36" spans="1:7">
       <c r="A44" s="9" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" ht="40" customHeight="1" spans="1:7">
       <c r="A45" s="9" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B45" s="10">
         <v>1400</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" ht="74" customHeight="1" spans="1:6">
       <c r="A46" s="31" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" ht="42" customHeight="1" spans="1:7">
       <c r="A47" s="9" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B47" s="10">
         <v>1200</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" ht="24" spans="1:7">
       <c r="A48" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B48" s="10">
         <v>1200</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" ht="24" spans="1:6">
       <c r="A49" s="9" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B49" s="10">
         <v>1200</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" ht="24" spans="1:7">
       <c r="A50" s="9" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B50" s="10">
         <v>1300</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" ht="24" spans="1:7">
       <c r="A51" s="9" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B51" s="10">
         <v>1300</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="9" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B52" s="10">
         <v>1300</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" ht="28" customHeight="1" spans="1:7">
       <c r="A53" s="28" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" ht="24" spans="1:7">
       <c r="A54" s="9" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B54" s="10">
         <v>1300</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55" ht="62" customHeight="1" spans="1:6">
       <c r="A55" s="9" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B55" s="10">
         <v>1300</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="9" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B56" s="10">
         <v>1300</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" ht="24" spans="1:6">
       <c r="A57" s="9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B57" s="10">
         <v>1300</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>234</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="58" ht="24" spans="1:7">
+      <c r="A58" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B58" s="10">
+        <v>1300</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -4046,7 +4145,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B1" s="1">
         <v>1200</v>
@@ -4055,7 +4154,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B3" s="2">
         <v>100000</v>
@@ -4063,7 +4162,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B4" s="2">
         <v>100000</v>
@@ -4071,7 +4170,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2">
         <v>100000</v>
@@ -4079,7 +4178,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2">
         <v>100000</v>
@@ -4087,7 +4186,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B7" s="2">
         <v>100000</v>
@@ -4095,7 +4194,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B8" s="2">
         <v>100000</v>
@@ -4103,7 +4202,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B9" s="3">
         <v>29</v>
@@ -4111,7 +4210,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B10" s="3">
         <v>27</v>
@@ -4119,7 +4218,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B11" s="3">
         <v>24</v>
@@ -4127,7 +4226,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B12" s="3">
         <v>23</v>
@@ -4135,7 +4234,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B13" s="3">
         <v>22</v>
@@ -4143,7 +4242,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B14" s="3">
         <v>22</v>
@@ -4151,7 +4250,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="B15" s="3">
         <v>11</v>
@@ -4159,7 +4258,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B16" s="3">
         <v>11</v>
@@ -4167,7 +4266,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="B17" s="4">
         <v>8</v>
@@ -4175,7 +4274,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B18" s="4">
         <v>8</v>
@@ -4183,7 +4282,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="B19" s="4">
         <v>8</v>
@@ -4191,7 +4290,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="B20" s="4">
         <v>4</v>
@@ -4199,7 +4298,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B21" s="4">
         <v>4</v>
@@ -4207,7 +4306,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B22" s="4">
         <v>3</v>
@@ -4215,7 +4314,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B23" s="4">
         <v>3</v>
@@ -4223,7 +4322,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
@@ -4232,7 +4331,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -4240,7 +4339,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -4248,7 +4347,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
@@ -4256,7 +4355,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4264,7 +4363,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4272,7 +4371,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4280,7 +4379,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4288,7 +4387,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4296,7 +4395,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4304,7 +4403,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4312,7 +4411,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4320,7 +4419,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4328,7 +4427,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4336,7 +4435,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4364,7 +4463,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B1" s="1">
         <v>1300</v>
@@ -4372,182 +4471,182 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/My_CP_Track/CP.xlsx
+++ b/My_CP_Track/CP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215"/>
+    <workbookView windowWidth="23040" windowHeight="9215" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Number_Theory" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="279">
   <si>
     <t>Problem</t>
   </si>
@@ -1666,6 +1666,30 @@
       </rPr>
       <t>that LSB of any no. is its divisor (see learnings.txt)</t>
     </r>
+  </si>
+  <si>
+    <t>1649B</t>
+  </si>
+  <si>
+    <t>had wrong graph approach, but it has repeating concept</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">learnt a new problem pattern             </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://codeforces.com/problemset/problem/1649/B</t>
+    </r>
+  </si>
+  <si>
+    <t>spending tine is worth it</t>
   </si>
   <si>
     <t>TOPIC</t>
@@ -1767,10 +1791,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;₹&quot;#,##0.00_);[Red]\(&quot;₹&quot;#,##0.00\)"/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1841,14 +1865,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -1863,8 +1879,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1917,6 +1934,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1955,6 +1979,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1965,13 +1996,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2036,7 +2060,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2048,7 +2072,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2060,7 +2132,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2072,7 +2144,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2084,25 +2156,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2114,13 +2198,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2132,91 +2234,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2227,15 +2251,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2319,6 +2334,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2332,7 +2356,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2344,140 +2371,137 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2585,9 +2609,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2911,7 +2932,7 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -2991,7 +3012,7 @@
       <c r="F3" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="35" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3008,10 +3029,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -4114,6 +4135,26 @@
       </c>
       <c r="G58" s="13" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="59" ht="36" spans="1:7">
+      <c r="A59" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B59" s="10">
+        <v>1300</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -4145,7 +4186,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B1" s="1">
         <v>1200</v>
@@ -4154,7 +4195,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B3" s="2">
         <v>100000</v>
@@ -4162,7 +4203,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B4" s="2">
         <v>100000</v>
@@ -4186,7 +4227,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B7" s="2">
         <v>100000</v>
@@ -4194,7 +4235,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B8" s="2">
         <v>100000</v>
@@ -4210,7 +4251,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B10" s="3">
         <v>27</v>
@@ -4218,7 +4259,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B11" s="3">
         <v>24</v>
@@ -4226,7 +4267,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B12" s="3">
         <v>23</v>
@@ -4250,7 +4291,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B15" s="3">
         <v>11</v>
@@ -4258,7 +4299,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B16" s="3">
         <v>11</v>
@@ -4266,7 +4307,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B17" s="4">
         <v>8</v>
@@ -4274,7 +4315,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B18" s="4">
         <v>8</v>
@@ -4282,7 +4323,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B19" s="4">
         <v>8</v>
@@ -4290,7 +4331,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B20" s="4">
         <v>4</v>
@@ -4298,7 +4339,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B21" s="4">
         <v>4</v>
@@ -4314,7 +4355,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B23" s="4">
         <v>3</v>
@@ -4322,7 +4363,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
@@ -4331,7 +4372,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -4339,7 +4380,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -4347,7 +4388,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
@@ -4355,7 +4396,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4363,7 +4404,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4371,7 +4412,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4379,7 +4420,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4387,7 +4428,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4395,7 +4436,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4403,7 +4444,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4411,7 +4452,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4419,7 +4460,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4427,7 +4468,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4435,7 +4476,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4463,7 +4504,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B1" s="1">
         <v>1300</v>
@@ -4471,12 +4512,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -4491,12 +4532,12 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -4506,17 +4547,17 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -4531,37 +4572,37 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -4571,82 +4612,82 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/My_CP_Track/CP.xlsx
+++ b/My_CP_Track/CP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9024" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Number_Theory" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="284">
   <si>
     <t>Problem</t>
   </si>
@@ -1675,6 +1675,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">learnt a new problem pattern             </t>
     </r>
     <r>
@@ -1690,6 +1697,21 @@
   </si>
   <si>
     <t>spending tine is worth it</t>
+  </si>
+  <si>
+    <t>1968D</t>
+  </si>
+  <si>
+    <t>permutation graph (functional graph)</t>
+  </si>
+  <si>
+    <t>wrongly read the problem and wasted time</t>
+  </si>
+  <si>
+    <t>learnt a lot --see the submissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">learnt proof from Abhishek Saini sir </t>
   </si>
   <si>
     <t>TOPIC</t>
@@ -1788,13 +1810,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="&quot;₹&quot;#,##0.00_);[Red]\(&quot;₹&quot;#,##0.00\)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="&quot;₹&quot;#,##0.00_);[Red]\(&quot;₹&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1865,41 +1887,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1934,10 +1926,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1951,13 +1944,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1979,6 +1965,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1995,7 +1989,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2060,7 +2082,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2072,7 +2142,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2084,13 +2190,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2102,7 +2202,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2114,97 +2244,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2216,31 +2256,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2251,30 +2273,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2289,6 +2287,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2332,6 +2339,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2356,7 +2378,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2365,139 +2393,133 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2517,7 +2539,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2587,7 +2609,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2605,7 +2627,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2614,52 +2636,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -3029,9 +3051,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A53" workbookViewId="0">
       <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
@@ -4155,6 +4177,24 @@
       </c>
       <c r="G59" s="13" t="s">
         <v>247</v>
+      </c>
+    </row>
+    <row r="60" ht="28.8" spans="1:7">
+      <c r="A60" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B60" s="10"/>
+      <c r="D60" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -4186,7 +4226,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B1" s="1">
         <v>1200</v>
@@ -4195,7 +4235,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B3" s="2">
         <v>100000</v>
@@ -4203,7 +4243,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B4" s="2">
         <v>100000</v>
@@ -4227,7 +4267,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B7" s="2">
         <v>100000</v>
@@ -4235,7 +4275,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B8" s="2">
         <v>100000</v>
@@ -4251,7 +4291,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B10" s="3">
         <v>27</v>
@@ -4259,7 +4299,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B11" s="3">
         <v>24</v>
@@ -4267,7 +4307,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B12" s="3">
         <v>23</v>
@@ -4291,7 +4331,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B15" s="3">
         <v>11</v>
@@ -4299,7 +4339,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B16" s="3">
         <v>11</v>
@@ -4307,7 +4347,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B17" s="4">
         <v>8</v>
@@ -4315,7 +4355,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B18" s="4">
         <v>8</v>
@@ -4323,7 +4363,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B19" s="4">
         <v>8</v>
@@ -4331,7 +4371,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B20" s="4">
         <v>4</v>
@@ -4339,7 +4379,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B21" s="4">
         <v>4</v>
@@ -4355,7 +4395,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B23" s="4">
         <v>3</v>
@@ -4363,7 +4403,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
@@ -4372,7 +4412,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -4380,7 +4420,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -4388,7 +4428,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
@@ -4396,7 +4436,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4404,7 +4444,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4412,7 +4452,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4420,7 +4460,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4428,7 +4468,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4436,7 +4476,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4444,7 +4484,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4452,7 +4492,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4460,7 +4500,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4468,7 +4508,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4476,7 +4516,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4504,7 +4544,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B1" s="1">
         <v>1300</v>
@@ -4512,12 +4552,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -4532,12 +4572,12 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -4547,17 +4587,17 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -4572,37 +4612,37 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -4612,82 +4652,82 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/My_CP_Track/CP.xlsx
+++ b/My_CP_Track/CP.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="289">
   <si>
     <t>Problem</t>
   </si>
@@ -1712,6 +1712,33 @@
   </si>
   <si>
     <t xml:space="preserve">learnt proof from Abhishek Saini sir </t>
+  </si>
+  <si>
+    <t>1971E</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>approach was correct but made mistake in precision of calculation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">learnt to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>divide at last of series of calculations</t>
+    </r>
+  </si>
+  <si>
+    <t>got corrective idea from Abhishek Saini sir</t>
   </si>
   <si>
     <t>TOPIC</t>
@@ -3051,10 +3078,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -4183,7 +4210,6 @@
       <c r="A60" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="B60" s="10"/>
       <c r="D60" s="9" t="s">
         <v>249</v>
       </c>
@@ -4195,6 +4221,23 @@
       </c>
       <c r="G60" s="13" t="s">
         <v>252</v>
+      </c>
+    </row>
+    <row r="61" ht="28.8" spans="1:7">
+      <c r="A61" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E61" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -4226,7 +4269,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B1" s="1">
         <v>1200</v>
@@ -4235,7 +4278,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B3" s="2">
         <v>100000</v>
@@ -4243,7 +4286,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B4" s="2">
         <v>100000</v>
@@ -4267,7 +4310,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B7" s="2">
         <v>100000</v>
@@ -4275,7 +4318,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B8" s="2">
         <v>100000</v>
@@ -4291,7 +4334,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B10" s="3">
         <v>27</v>
@@ -4299,7 +4342,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B11" s="3">
         <v>24</v>
@@ -4307,7 +4350,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B12" s="3">
         <v>23</v>
@@ -4331,7 +4374,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B15" s="3">
         <v>11</v>
@@ -4339,7 +4382,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B16" s="3">
         <v>11</v>
@@ -4347,7 +4390,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B17" s="4">
         <v>8</v>
@@ -4355,7 +4398,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B18" s="4">
         <v>8</v>
@@ -4363,7 +4406,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B19" s="4">
         <v>8</v>
@@ -4371,7 +4414,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B20" s="4">
         <v>4</v>
@@ -4379,7 +4422,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B21" s="4">
         <v>4</v>
@@ -4395,7 +4438,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B23" s="4">
         <v>3</v>
@@ -4403,7 +4446,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
@@ -4412,7 +4455,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -4420,7 +4463,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -4428,7 +4471,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
@@ -4436,7 +4479,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4444,7 +4487,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4452,7 +4495,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4460,7 +4503,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4468,7 +4511,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4476,7 +4519,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4484,7 +4527,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4492,7 +4535,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4500,7 +4543,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4508,7 +4551,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4516,7 +4559,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4544,7 +4587,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B1" s="1">
         <v>1300</v>
@@ -4552,12 +4595,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -4572,12 +4615,12 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -4587,17 +4630,17 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -4612,37 +4655,37 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -4652,82 +4695,82 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/My_CP_Track/CP.xlsx
+++ b/My_CP_Track/CP.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="293">
   <si>
     <t>Problem</t>
   </si>
@@ -1724,6 +1724,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">learnt to </t>
     </r>
     <r>
@@ -1739,6 +1746,30 @@
   </si>
   <si>
     <t>got corrective idea from Abhishek Saini sir</t>
+  </si>
+  <si>
+    <t>1973A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">had no ideas initially </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">learnt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>new framework to count pairs by taking part from set of elements</t>
+    </r>
+  </si>
+  <si>
+    <t>a new idea; but could have been though easily</t>
   </si>
   <si>
     <t>TOPIC</t>
@@ -3078,10 +3109,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -4238,6 +4269,26 @@
       </c>
       <c r="G61" s="13" t="s">
         <v>257</v>
+      </c>
+    </row>
+    <row r="62" ht="36" spans="1:7">
+      <c r="A62" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4269,7 +4320,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B1" s="1">
         <v>1200</v>
@@ -4278,7 +4329,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B3" s="2">
         <v>100000</v>
@@ -4286,7 +4337,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B4" s="2">
         <v>100000</v>
@@ -4310,7 +4361,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B7" s="2">
         <v>100000</v>
@@ -4318,7 +4369,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B8" s="2">
         <v>100000</v>
@@ -4334,7 +4385,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B10" s="3">
         <v>27</v>
@@ -4342,7 +4393,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B11" s="3">
         <v>24</v>
@@ -4350,7 +4401,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B12" s="3">
         <v>23</v>
@@ -4374,7 +4425,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B15" s="3">
         <v>11</v>
@@ -4382,7 +4433,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B16" s="3">
         <v>11</v>
@@ -4390,7 +4441,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B17" s="4">
         <v>8</v>
@@ -4398,7 +4449,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B18" s="4">
         <v>8</v>
@@ -4406,7 +4457,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B19" s="4">
         <v>8</v>
@@ -4414,7 +4465,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B20" s="4">
         <v>4</v>
@@ -4422,7 +4473,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B21" s="4">
         <v>4</v>
@@ -4438,7 +4489,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B23" s="4">
         <v>3</v>
@@ -4446,7 +4497,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
@@ -4455,7 +4506,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -4463,7 +4514,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -4471,7 +4522,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
@@ -4479,7 +4530,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4487,7 +4538,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4495,7 +4546,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4503,7 +4554,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4511,7 +4562,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4519,7 +4570,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4527,7 +4578,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4535,7 +4586,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4543,7 +4594,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4551,7 +4602,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4559,7 +4610,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4587,7 +4638,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B1" s="1">
         <v>1300</v>
@@ -4595,12 +4646,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -4615,12 +4666,12 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -4630,17 +4681,17 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -4655,37 +4706,37 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -4695,82 +4746,82 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/My_CP_Track/CP.xlsx
+++ b/My_CP_Track/CP.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="297">
   <si>
     <t>Problem</t>
   </si>
@@ -1751,10 +1751,17 @@
     <t>1973A</t>
   </si>
   <si>
-    <t xml:space="preserve">had no ideas initially </t>
-  </si>
-  <si>
-    <r>
+    <t>had no ideas initially</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">learnt </t>
     </r>
     <r>
@@ -1770,6 +1777,30 @@
   </si>
   <si>
     <t>a new idea; but could have been though easily</t>
+  </si>
+  <si>
+    <t>1514B</t>
+  </si>
+  <si>
+    <t>modular arithmetics (exponentiation)</t>
+  </si>
+  <si>
+    <t>had no ideas initially but writing brute force gave hint</t>
+  </si>
+  <si>
+    <r>
+      <t>learnt -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>writing brute force codes for some problems helps a lot                   -first modular exponentiation problem.</t>
+    </r>
   </si>
   <si>
     <t>TOPIC</t>
@@ -3109,10 +3140,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -3120,7 +3151,7 @@
     <col min="1" max="1" width="23.8611111111111" style="9" customWidth="1"/>
     <col min="2" max="2" width="8.88888888888889" style="10"/>
     <col min="3" max="3" width="16.037037037037" style="11" customWidth="1"/>
-    <col min="4" max="4" width="30.7314814814815" style="9" customWidth="1"/>
+    <col min="4" max="4" width="33.5185185185185" style="9" customWidth="1"/>
     <col min="5" max="5" width="34.6851851851852" style="12" customWidth="1"/>
     <col min="6" max="6" width="24.0925925925926" style="13" customWidth="1"/>
     <col min="7" max="7" width="32.0462962962963" style="13" customWidth="1"/>
@@ -4289,6 +4320,23 @@
       </c>
       <c r="G62" s="13" t="s">
         <v>261</v>
+      </c>
+    </row>
+    <row r="63" ht="55" customHeight="1" spans="1:6">
+      <c r="A63" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B63" s="10">
+        <v>1200</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E63" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -4320,7 +4368,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B1" s="1">
         <v>1200</v>
@@ -4329,7 +4377,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B3" s="2">
         <v>100000</v>
@@ -4337,7 +4385,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B4" s="2">
         <v>100000</v>
@@ -4361,7 +4409,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B7" s="2">
         <v>100000</v>
@@ -4369,7 +4417,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B8" s="2">
         <v>100000</v>
@@ -4385,7 +4433,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B10" s="3">
         <v>27</v>
@@ -4393,7 +4441,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B11" s="3">
         <v>24</v>
@@ -4401,7 +4449,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B12" s="3">
         <v>23</v>
@@ -4425,7 +4473,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B15" s="3">
         <v>11</v>
@@ -4433,7 +4481,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B16" s="3">
         <v>11</v>
@@ -4441,7 +4489,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B17" s="4">
         <v>8</v>
@@ -4449,7 +4497,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B18" s="4">
         <v>8</v>
@@ -4457,7 +4505,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B19" s="4">
         <v>8</v>
@@ -4465,7 +4513,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B20" s="4">
         <v>4</v>
@@ -4473,7 +4521,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B21" s="4">
         <v>4</v>
@@ -4489,7 +4537,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B23" s="4">
         <v>3</v>
@@ -4497,7 +4545,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
@@ -4506,7 +4554,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -4514,7 +4562,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -4522,7 +4570,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
@@ -4530,7 +4578,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4538,7 +4586,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4546,7 +4594,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4554,7 +4602,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4562,7 +4610,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4570,7 +4618,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4578,7 +4626,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4586,7 +4634,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4594,7 +4642,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4602,7 +4650,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4610,7 +4658,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4638,7 +4686,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B1" s="1">
         <v>1300</v>
@@ -4646,12 +4694,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -4666,12 +4714,12 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -4681,17 +4729,17 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -4706,37 +4754,37 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -4746,82 +4794,82 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/My_CP_Track/CP.xlsx
+++ b/My_CP_Track/CP.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="302">
   <si>
     <t>Problem</t>
   </si>
@@ -1789,6 +1789,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>learnt -</t>
     </r>
     <r>
@@ -1801,6 +1808,33 @@
       </rPr>
       <t>writing brute force codes for some problems helps a lot                   -first modular exponentiation problem.</t>
     </r>
+  </si>
+  <si>
+    <t>1862E</t>
+  </si>
+  <si>
+    <t>STL Application</t>
+  </si>
+  <si>
+    <t>Decode the operation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">learnt - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>maintaining top k elements using mst</t>
+    </r>
+  </si>
+  <si>
+    <t>took longer to implement</t>
   </si>
   <si>
     <t>TOPIC</t>
@@ -3140,10 +3174,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -4337,6 +4371,26 @@
       </c>
       <c r="F63" s="13" t="s">
         <v>265</v>
+      </c>
+    </row>
+    <row r="64" ht="24" spans="1:7">
+      <c r="A64" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B64" s="10">
+        <v>1600</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -4368,7 +4422,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B1" s="1">
         <v>1200</v>
@@ -4377,7 +4431,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B3" s="2">
         <v>100000</v>
@@ -4385,7 +4439,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B4" s="2">
         <v>100000</v>
@@ -4409,7 +4463,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B7" s="2">
         <v>100000</v>
@@ -4417,7 +4471,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B8" s="2">
         <v>100000</v>
@@ -4433,7 +4487,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B10" s="3">
         <v>27</v>
@@ -4441,7 +4495,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B11" s="3">
         <v>24</v>
@@ -4449,7 +4503,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B12" s="3">
         <v>23</v>
@@ -4473,7 +4527,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B15" s="3">
         <v>11</v>
@@ -4481,7 +4535,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B16" s="3">
         <v>11</v>
@@ -4489,7 +4543,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B17" s="4">
         <v>8</v>
@@ -4497,7 +4551,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B18" s="4">
         <v>8</v>
@@ -4505,7 +4559,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B19" s="4">
         <v>8</v>
@@ -4513,7 +4567,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B20" s="4">
         <v>4</v>
@@ -4521,7 +4575,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B21" s="4">
         <v>4</v>
@@ -4537,7 +4591,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B23" s="4">
         <v>3</v>
@@ -4545,7 +4599,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
@@ -4554,7 +4608,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -4562,7 +4616,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -4570,7 +4624,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
@@ -4578,7 +4632,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4586,7 +4640,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4594,7 +4648,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4602,7 +4656,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4610,7 +4664,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4618,7 +4672,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4626,7 +4680,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4634,7 +4688,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4642,7 +4696,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4650,7 +4704,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4658,7 +4712,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4686,7 +4740,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B1" s="1">
         <v>1300</v>
@@ -4694,12 +4748,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -4714,12 +4768,12 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -4729,17 +4783,17 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -4754,37 +4808,37 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -4794,82 +4848,82 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
